--- a/out.xlsx
+++ b/out.xlsx
@@ -22,16 +22,16 @@
     <t>PF_RETURN</t>
   </si>
   <si>
-    <t>var</t>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>累计收益率</t>
   </si>
   <si>
     <t>2014-10-10</t>
   </si>
   <si>
     <t>2014-10-11</t>
-  </si>
-  <si>
-    <t>Null</t>
   </si>
   <si>
     <t>2014-10-12</t>
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,38 +425,45 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>-0.0067348113458554</v>
       </c>
-      <c r="D2" t="n">
-        <v>9.9535377299647e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <f>stdev(C2:C16)</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>PRODUCT(C2:C12+1)-1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -464,13 +471,12 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -478,13 +484,12 @@
       <c r="C5" t="n">
         <v>0.0139118217155364</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -492,13 +497,12 @@
       <c r="C6" t="n">
         <v>-0.0258190497034591</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="n">
-        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -506,13 +510,12 @@
       <c r="C7" t="n">
         <v>0.0067852525999381</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -520,13 +523,12 @@
       <c r="C8" t="n">
         <v>-0.0071567765511583</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -534,13 +536,12 @@
       <c r="C9" t="n">
         <v>0.0006887188428222</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -548,13 +549,12 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -562,13 +562,12 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -576,9 +575,8 @@
       <c r="C12" t="n">
         <v>0.0034824555109284</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
